--- a/syscon_usb/DACS_V1_0_ISE/tools/Conversions.xlsx
+++ b/syscon_usb/DACS_V1_0_ISE/tools/Conversions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="12015" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="19035" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,16 +174,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,6 +192,80 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="3076575"/>
+          <a:ext cx="4410075" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This chart looks at</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> the combination of the LMP7312MA AFE and the AD7687 A/D. It does not take into account the limits of the AD8639 or whatever buffer it is replaced by. These limit the voltage range further.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -538,26 +612,26 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="O7" s="9" t="s">
+      <c r="M7" s="12"/>
+      <c r="O7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="9"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
@@ -947,6 +1021,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -954,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -974,11 +1049,11 @@
       <c r="A3">
         <v>1.55E-4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="13"/>
+      <c r="G3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -990,7 +1065,7 @@
         <f>A4-A3</f>
         <v>1.1913E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f>AVERAGE(B4:B6)*1000</f>
         <v>11.913000000000002</v>
       </c>
@@ -1009,7 +1084,7 @@
         <f t="shared" ref="B5:B6" si="0">A5-A4</f>
         <v>1.1912999999999998E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f>D4*8</f>
         <v>95.304000000000016</v>
       </c>
@@ -1019,7 +1094,7 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>1000000/D5</f>
         <v>10492.739024594979</v>
       </c>
@@ -1042,7 +1117,7 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>1000000/D6</f>
         <v>1311.5923780743724</v>
       </c>
